--- a/2018周报/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
+++ b/2018周报/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>项目名称</t>
   </si>
@@ -77,55 +77,64 @@
   </si>
   <si>
     <t>王琪</t>
-  </si>
-  <si>
-    <t>罗健</t>
-  </si>
-  <si>
-    <t>陈平</t>
-  </si>
-  <si>
-    <t>张文韬</t>
-  </si>
-  <si>
-    <t>1.联调音乐视频等接口返回细节
-2.整理资源类型</t>
-  </si>
-  <si>
-    <t>李春荣</t>
-  </si>
-  <si>
-    <t>曾昌林</t>
-  </si>
-  <si>
-    <t>何娟</t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t>贾洋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1.演唱会直播间其它人员开发的接口熟悉（演唱会概要，详情，轮询接口等）
-2.Spring Cloud框架技术研究并技术分享（服务注册与发现）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1docker技术学习交流。
 2kubernate技术学习交流
 3线网bug支持</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗健</t>
+  </si>
+  <si>
+    <t>1.演唱会直播间其它人员开发的接口熟悉（演唱会概要，详情，轮询接口等）
+2.Spring Cloud框架技术研究并技术分享（服务注册与发现）</t>
+  </si>
+  <si>
+    <t>陈平</t>
+  </si>
+  <si>
+    <t>张文韬</t>
+  </si>
+  <si>
+    <t>1.联调音乐视频等接口返回细节
+2.整理资源类型</t>
+  </si>
+  <si>
+    <t>李春荣</t>
+  </si>
+  <si>
+    <t>曾昌林</t>
+  </si>
+  <si>
+    <t>何娟</t>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t>1.直播间播放次数放大处理逻辑调整测试及上线
+2.弹幕审核页面处理方式调整测试及上线
+3.服务注册发现学习交流</t>
+  </si>
+  <si>
+    <t>贾洋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,7 +146,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -145,54 +153,178 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,12 +333,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -240,18 +552,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -293,19 +853,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -596,456 +1197,461 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.8833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.8833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.4416666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.775" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20180102</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20180105</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20180102</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20180105</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20180102</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20180105</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20180102</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20180105</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20180102</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20180105</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>20180102</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>20180105</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="51.75" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>20180102</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>20180105</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="69" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="34.5" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="51.75" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E16" s="6">
         <v>20180102</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F16" s="6">
         <v>20180105</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="15"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018周报/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
+++ b/2018周报/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>项目名称</t>
   </si>
@@ -107,7 +107,16 @@
     <t>曾昌林</t>
   </si>
   <si>
+    <t>活动模板开发</t>
+  </si>
+  <si>
     <t>何娟</t>
+  </si>
+  <si>
+    <t>活动模板表结构设计，以及与后台管理系统对接设计接口模板规范。模板支持活动场景规划</t>
+  </si>
+  <si>
+    <t>代码、文档</t>
   </si>
   <si>
     <t>袁常鑫</t>
@@ -122,21 +131,19 @@
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>活动模板开发</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,22 +187,153 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,12 +342,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -243,18 +561,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -296,88 +862,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -394,7 +933,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -667,464 +1206,469 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20180102</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20180105</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20180102</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20180105</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20180102</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20180105</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20180102</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20180105</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20180102</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20180105</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>20180102</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>20180105</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="51.75" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>20180102</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>20180105</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="69" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>20180102</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>20180105</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>20180102</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>20180105</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="34.5" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>20180102</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>20180105</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>20180102</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <v>20180105</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>20180102</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <v>20180105</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="34.5" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="51.75" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E16" s="6">
         <v>20180102</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F16" s="6">
         <v>20180105</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="15"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018周报/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
+++ b/2018周报/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\github\weekReport\2018周报\20180105周报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\2018周报\20180105周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>项目名称</t>
   </si>
@@ -99,10 +99,6 @@
     <t>张文韬</t>
   </si>
   <si>
-    <t>1.联调音乐视频等接口返回细节
-2.整理资源类型</t>
-  </si>
-  <si>
     <t>李春荣</t>
   </si>
   <si>
@@ -113,9 +109,6 @@
   </si>
   <si>
     <t>何娟</t>
-  </si>
-  <si>
-    <t>活动模板表结构设计，以及与后台管理系统对接设计接口模板规范。模板支持活动场景规划</t>
   </si>
   <si>
     <t>代码、文档</t>
@@ -164,12 +157,26 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>活动模板表结构设计，以及与后台管理系统对接设计接口模板规范。模板支持活动场景规划</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.联调音乐视频等接口返回细节
+2.整理资源类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理产品模块音乐相关文档
+熟悉产品业务流程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +255,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -308,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -351,17 +365,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -671,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -792,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -804,10 +824,10 @@
         <v>20180105</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -829,11 +849,11 @@
       <c r="F6" s="4">
         <v>20180105</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>35</v>
+      <c r="G6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -947,14 +967,14 @@
       <c r="F11" s="4">
         <v>20180105</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>24</v>
+      <c r="G11" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -962,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
@@ -973,7 +993,9 @@
       <c r="F12" s="4">
         <v>20180105</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -984,19 +1006,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4">
+        <v>20180102</v>
+      </c>
+      <c r="F13" s="4">
+        <v>20180105</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>13</v>
@@ -1010,22 +1032,22 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20180102</v>
+      </c>
+      <c r="F14" s="4">
+        <v>20180105</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
@@ -1036,7 +1058,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
@@ -1048,7 +1070,7 @@
         <v>20180105</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>13</v>
@@ -1059,22 +1081,22 @@
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4">
+        <v>20180102</v>
+      </c>
+      <c r="F16" s="4">
+        <v>20180105</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1098,39 +1120,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>34</v>
+      <c r="A1" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
+      <c r="A2" s="19"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2018周报/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
+++ b/2018周报/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\2018周报\20180105周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>项目名称</t>
   </si>
@@ -72,77 +67,22 @@
     <t>凌河源</t>
   </si>
   <si>
+    <t>陆晨曦</t>
+  </si>
+  <si>
+    <t>歌单系统添加rabbitmq能力</t>
+  </si>
+  <si>
     <t>赵小平</t>
   </si>
   <si>
-    <t>陈毅昌</t>
-  </si>
-  <si>
-    <t>王琪</t>
-  </si>
-  <si>
-    <t>1docker技术学习交流。
-2kubernate技术学习交流
-3线网bug支持</t>
-  </si>
-  <si>
-    <t>罗健</t>
-  </si>
-  <si>
-    <t>1.演唱会直播间其它人员开发的接口熟悉（演唱会概要，详情，轮询接口等）
-2.Spring Cloud框架技术研究并技术分享（服务注册与发现）</t>
-  </si>
-  <si>
-    <t>陈平</t>
-  </si>
-  <si>
-    <t>张文韬</t>
-  </si>
-  <si>
-    <t>李春荣</t>
-  </si>
-  <si>
-    <t>曾昌林</t>
-  </si>
-  <si>
-    <t>活动模板开发</t>
-  </si>
-  <si>
-    <t>何娟</t>
-  </si>
-  <si>
-    <t>代码、文档</t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t>1.直播间播放次数放大处理逻辑调整测试及上线
-2.弹幕审核页面处理方式调整测试及上线
-3.服务注册发现学习交流</t>
-  </si>
-  <si>
-    <t>贾洋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆晨曦</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌单系统添加rabbitmq能力</t>
-  </si>
-  <si>
-    <t>活动列表，活动添加</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>ra</t>
     </r>
     <r>
@@ -150,33 +90,95 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>bbitmq相关技术学习，单点登录技术研究</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动模板表结构设计，以及与后台管理系统对接设计接口模板规范。模板支持活动场景规划</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>1.和前端修改榜单bug
+2.应对App Store审核策略
+3.联调修改</t>
+  </si>
+  <si>
+    <t>王琪</t>
+  </si>
+  <si>
+    <t>1docker技术学习交流。
+2kubernate技术学习交流
+3线网bug支持</t>
+  </si>
+  <si>
+    <t>罗健</t>
+  </si>
+  <si>
+    <t>1.演唱会直播间其它人员开发的接口熟悉（演唱会概要，详情，轮询接口等）
+2.Spring Cloud框架技术研究并技术分享（服务注册与发现）</t>
+  </si>
+  <si>
+    <t>陈平</t>
+  </si>
+  <si>
+    <t>张文韬</t>
   </si>
   <si>
     <t>1.联调音乐视频等接口返回细节
 2.整理资源类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>李春荣</t>
   </si>
   <si>
     <t>整理产品模块音乐相关文档
 熟悉产品业务流程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾昌林</t>
+  </si>
+  <si>
+    <t>活动模板开发</t>
+  </si>
+  <si>
+    <t>何娟</t>
+  </si>
+  <si>
+    <t>活动模板表结构设计，以及与后台管理系统对接设计接口模板规范。模板支持活动场景规划</t>
+  </si>
+  <si>
+    <t>代码、文档</t>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t>1.直播间播放次数放大处理逻辑调整测试及上线
+2.弹幕审核页面处理方式调整测试及上线
+3.服务注册发现学习交流</t>
+  </si>
+  <si>
+    <t>贾洋</t>
+  </si>
+  <si>
+    <t>活动列表，活动添加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,42 +219,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -260,11 +235,159 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,12 +396,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -312,18 +621,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,6 +898,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -353,6 +916,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -365,38 +934,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -683,482 +1278,487 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20180102</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20180105</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20180102</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20180105</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20180102</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20180105</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="51.75" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="51.75" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="69" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="34.5" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="34.5" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="34.5" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="H14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" ht="51.75" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E15" s="6">
         <v>20180102</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F15" s="6">
         <v>20180105</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="G15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E16" s="6">
         <v>20180102</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F16" s="6">
         <v>20180105</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F7" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F8" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F9" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="G16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="15"/>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018周报/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
+++ b/2018周报/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\2018周报\20180105周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24135" windowHeight="13050"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>项目名称</t>
   </si>
@@ -127,6 +122,10 @@
     <t>陈平</t>
   </si>
   <si>
+    <t>1.换一批添加vip标识
+2.梳理搜索需求</t>
+  </si>
+  <si>
     <t>张文韬</t>
   </si>
   <si>
@@ -170,23 +169,27 @@
     <t>活动列表，活动添加</t>
   </si>
   <si>
+    <t>胡阳</t>
+  </si>
+  <si>
+    <t>1docker技术学习交流。
+2线网bug支持</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1.换一批添加vip标识
-2.梳理搜索需求</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,58 +231,162 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,12 +395,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -327,18 +620,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -356,12 +897,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -374,11 +909,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -389,32 +921,64 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -701,170 +1265,170 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20180102</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20180105</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20180102</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20180105</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20180102</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20180105</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20180102</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20180105</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20180102</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20180105</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -874,23 +1438,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="51.75" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>20180102</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>20180105</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -900,291 +1464,313 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="51.75" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>20180102</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>20180105</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="69" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>20180102</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>20180105</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>20180102</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>20180105</v>
       </c>
       <c r="G10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="34.5" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="34.5" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="34.5" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="51.75" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F16" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="1:8">
+      <c r="A17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6">
+        <v>20180102</v>
+      </c>
+      <c r="F17" s="6">
+        <v>20180105</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20180102</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20180105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="19"/>
+      <c r="H17" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018周报/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
+++ b/2018周报/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>项目名称</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>杜智恒</t>
+  </si>
+  <si>
+    <t>开发新日志系统的新策略功能</t>
   </si>
   <si>
     <t>凌河源</t>
@@ -185,11 +188,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,18 +233,121 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -252,38 +358,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -294,14 +374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -309,84 +381,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,187 +397,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,30 +611,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -663,23 +629,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,16 +678,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,143 +726,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -908,9 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1273,8 +1260,8 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1361,8 +1348,12 @@
       <c r="F3" s="6">
         <v>20180105</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" ht="17.25" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -1372,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
@@ -1394,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -1406,7 +1397,7 @@
         <v>20180105</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>13</v>
@@ -1420,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1432,7 +1423,7 @@
         <v>20180105</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>13</v>
@@ -1446,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1458,7 +1449,7 @@
         <v>20180105</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>13</v>
@@ -1472,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1484,7 +1475,7 @@
         <v>20180105</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -1496,7 +1487,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1508,7 +1499,7 @@
         <v>20180105</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="9"/>
     </row>
@@ -1520,7 +1511,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1532,9 +1523,9 @@
         <v>20180105</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1546,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1558,7 +1549,7 @@
         <v>20180105</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>13</v>
@@ -1572,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -1584,7 +1575,7 @@
         <v>20180105</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" s="9"/>
     </row>
@@ -1596,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1607,10 +1598,10 @@
       <c r="F13" s="6">
         <v>20180105</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1622,7 +1613,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1634,10 +1625,10 @@
         <v>20180105</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" ht="51.75" spans="1:8">
@@ -1648,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1659,8 +1650,8 @@
       <c r="F15" s="6">
         <v>20180105</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>38</v>
+      <c r="G15" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>13</v>
@@ -1671,7 +1662,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
@@ -1683,7 +1674,7 @@
         <v>20180105</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>13</v>
@@ -1697,7 +1688,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>11</v>
@@ -1709,7 +1700,7 @@
         <v>20180105</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" s="9"/>
     </row>
@@ -1733,7 +1724,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
